--- a/order.xlsx
+++ b/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garya\Documents\cknew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4099AF-369B-48E3-BB71-1E9B48A9564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F2800-1E45-4C78-B36E-8612B2383C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>25 Jan 2024</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>47 Mountainback Rd</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Nastar</t>
+  </si>
+  <si>
+    <t>45000 (N)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Kastengel</t>
+  </si>
+  <si>
+    <t>35000 (C)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Box B</t>
+  </si>
+  <si>
+    <t>155000 (R)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Box C</t>
+  </si>
+  <si>
+    <t>68900 (H)</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Discount 3%</t>
   </si>
 </sst>
 </file>
@@ -493,8 +547,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,7 +590,9 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -585,7 +641,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -611,7 +669,9 @@
       <c r="D4" s="13"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -876,10 +936,21 @@
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="4"/>
-      <c r="I15"/>
-      <c r="K15" s="22"/>
+      <c r="G15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="22">
+        <v>135000</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="1"/>
@@ -907,8 +978,21 @@
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="H16" s="4"/>
-      <c r="K16" s="22"/>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="22">
+        <v>140000</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="1"/>
@@ -936,8 +1020,21 @@
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="H17" s="4"/>
-      <c r="K17" s="22"/>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="22">
+        <v>775000</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="1"/>
@@ -965,10 +1062,21 @@
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="4"/>
-      <c r="I18"/>
-      <c r="K18" s="22"/>
+      <c r="G18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="22">
+        <v>413400</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="1"/>
@@ -1308,7 +1416,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -1316,7 +1424,12 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="H30" s="4"/>
-      <c r="K30" s="22"/>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="22">
+        <v>1463400</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1337,7 +1450,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1345,7 +1458,12 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="H31" s="4"/>
-      <c r="K31" s="22"/>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="22">
+        <v>43900</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1377,7 +1495,9 @@
       <c r="J32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>1419500</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1941,7 +2061,7 @@
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.54" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>